--- a/Teams/Everton_stats.xlsx
+++ b/Teams/Everton_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6620,10 +6620,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -6867,7 +6871,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -6984,7 +6988,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7101,7 +7105,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7218,7 +7222,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7335,7 +7339,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7452,7 +7456,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7569,7 +7573,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7686,7 +7690,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -7803,7 +7807,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -7920,7 +7924,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8037,7 +8041,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8154,7 +8158,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8271,7 +8275,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8388,7 +8392,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8505,7 +8509,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8622,7 +8626,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8739,7 +8743,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -8856,7 +8860,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -8973,7 +8977,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9090,7 +9094,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9207,7 +9211,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9324,7 +9328,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9441,7 +9445,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9558,7 +9562,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9675,7 +9679,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -9792,7 +9796,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -9909,7 +9913,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -9972,7 +9976,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>37-273</t>
+          <t>37-274</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10035,7 +10039,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>19-184</t>
+          <t>19-185</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10098,7 +10102,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -10161,7 +10165,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -10224,7 +10228,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20-195</t>
+          <t>20-196</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -10287,7 +10291,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18-283</t>
+          <t>18-284</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -10350,7 +10354,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25-161</t>
+          <t>25-162</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -10605,9 +10609,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10825,7 +10829,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -10899,7 +10903,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -10983,7 +10987,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11065,7 +11069,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11149,7 +11153,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11233,7 +11237,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11317,7 +11321,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11401,7 +11405,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11485,7 +11489,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11569,7 +11573,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11653,7 +11657,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11737,7 +11741,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11821,7 +11825,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -11905,7 +11909,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -11989,7 +11993,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12073,7 +12077,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12157,7 +12161,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12241,7 +12245,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12323,7 +12327,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12407,7 +12411,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12491,7 +12495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12573,7 +12577,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12647,7 +12651,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -12729,7 +12733,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -12811,7 +12815,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -12895,7 +12899,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13388,7 +13392,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13490,7 +13494,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -13592,7 +13596,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -13694,7 +13698,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13796,7 +13800,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -13898,7 +13902,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -14000,7 +14004,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -14102,7 +14106,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -14204,7 +14208,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -14306,7 +14310,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14408,7 +14412,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -14510,7 +14514,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -14612,7 +14616,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -14714,7 +14718,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -14816,7 +14820,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -14918,7 +14922,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -15020,7 +15024,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -15122,7 +15126,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -15224,7 +15228,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15326,7 +15330,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -15428,7 +15432,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -15530,7 +15534,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -15632,7 +15636,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -15734,7 +15738,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -15836,7 +15840,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -15936,7 +15940,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -16414,7 +16418,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -16492,7 +16496,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -16570,7 +16574,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16648,7 +16652,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -16726,7 +16730,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -16804,7 +16808,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -16882,7 +16886,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -16960,7 +16964,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -17038,7 +17042,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -17116,7 +17120,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -17194,7 +17198,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -17272,7 +17276,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -17350,7 +17354,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -17428,7 +17432,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -17506,7 +17510,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17584,7 +17588,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17662,7 +17666,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -17740,7 +17744,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -17818,7 +17822,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -17896,7 +17900,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -17974,7 +17978,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18052,7 +18056,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18130,7 +18134,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -18208,7 +18212,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18286,7 +18290,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -18364,7 +18368,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -18776,7 +18780,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -18857,7 +18861,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18938,7 +18942,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19019,7 +19023,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19100,7 +19104,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19181,7 +19185,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19262,7 +19266,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19343,7 +19347,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -19424,7 +19428,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -19505,7 +19509,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19586,7 +19590,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -19667,7 +19671,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19748,7 +19752,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19829,7 +19833,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19910,7 +19914,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19991,7 +19995,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20072,7 +20076,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20153,7 +20157,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20234,7 +20238,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -20315,7 +20319,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -20396,7 +20400,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -20477,7 +20481,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -20558,7 +20562,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20639,7 +20643,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -20720,7 +20724,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -20801,7 +20805,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21235,7 +21239,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -21316,7 +21320,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21397,7 +21401,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21478,7 +21482,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -21559,7 +21563,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -21640,7 +21644,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -21721,7 +21725,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -21802,7 +21806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21883,7 +21887,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21964,7 +21968,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22045,7 +22049,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -22126,7 +22130,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -22207,7 +22211,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22288,7 +22292,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -22369,7 +22373,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22450,7 +22454,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -22531,7 +22535,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -22612,7 +22616,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -22693,7 +22697,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -22774,7 +22778,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22855,7 +22859,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22934,7 +22938,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -23015,7 +23019,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -23096,7 +23100,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -23177,7 +23181,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -23256,7 +23260,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -23711,7 +23715,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -23806,7 +23810,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -23905,7 +23909,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -24004,7 +24008,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -24103,7 +24107,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -24202,7 +24206,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24301,7 +24305,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24400,7 +24404,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -24499,7 +24503,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -24598,7 +24602,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -24697,7 +24701,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -24796,7 +24800,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -24895,7 +24899,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -24994,7 +24998,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -25093,7 +25097,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -25192,7 +25196,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -25291,7 +25295,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -25390,7 +25394,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25489,7 +25493,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -25588,7 +25592,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -25687,7 +25691,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -25786,7 +25790,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -25885,7 +25889,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -25984,7 +25988,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -26083,7 +26087,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -26182,7 +26186,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -26479,10 +26483,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -26726,7 +26734,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31-013</t>
+          <t>31-014</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -26843,7 +26851,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32-121</t>
+          <t>32-122</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -26960,7 +26968,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25-295</t>
+          <t>25-296</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -27077,7 +27085,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35-175</t>
+          <t>35-176</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -27194,7 +27202,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32-078</t>
+          <t>32-079</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -27311,7 +27319,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25-014</t>
+          <t>25-015</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -27428,7 +27436,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22-266</t>
+          <t>22-267</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -27545,7 +27553,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28-004</t>
+          <t>28-005</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -27662,7 +27670,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39-254</t>
+          <t>39-255</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -27779,7 +27787,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-120</t>
+          <t>28-121</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -27896,7 +27904,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25-019</t>
+          <t>25-020</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -28013,7 +28021,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27-002</t>
+          <t>27-003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -28130,7 +28138,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-118</t>
+          <t>25-119</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -28247,7 +28255,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24-007</t>
+          <t>24-008</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -28364,7 +28372,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23-309</t>
+          <t>23-310</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -28481,7 +28489,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>32-068</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -28598,7 +28606,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27-048</t>
+          <t>27-049</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -28715,7 +28723,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-263</t>
+          <t>21-264</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28832,7 +28840,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -28949,7 +28957,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36-160</t>
+          <t>36-161</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -29066,7 +29074,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23-191</t>
+          <t>23-192</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -29183,7 +29191,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20-084</t>
+          <t>20-085</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -29300,7 +29308,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23-155</t>
+          <t>23-156</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -29417,7 +29425,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-060</t>
+          <t>18-061</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -29534,7 +29542,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-300</t>
+          <t>20-301</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -29651,7 +29659,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28-149</t>
+          <t>28-150</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -29768,7 +29776,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -29831,7 +29839,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>37-273</t>
+          <t>37-274</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29894,7 +29902,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>19-184</t>
+          <t>19-185</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -29957,7 +29965,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20-143</t>
+          <t>20-144</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -30020,7 +30028,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>28-218</t>
+          <t>28-219</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -30083,7 +30091,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20-195</t>
+          <t>20-196</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -30146,7 +30154,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18-283</t>
+          <t>18-284</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -30209,7 +30217,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25-161</t>
+          <t>25-162</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -30464,9 +30472,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/Everton_stats.xlsx
+++ b/Teams/Everton_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3228,7 +3228,9 @@
       <c r="N34" t="n">
         <v>54</v>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>39343</v>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>James Tarkowski</t>
@@ -3864,7 +3866,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3935,7 +3937,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4006,7 +4008,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4077,7 +4079,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4148,7 +4150,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4219,7 +4221,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4290,7 +4292,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4361,7 +4363,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4432,7 +4434,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4503,7 +4505,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4574,7 +4576,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4645,7 +4647,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4716,7 +4718,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4787,7 +4789,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4858,7 +4860,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -4929,7 +4931,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5000,7 +5002,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5071,7 +5073,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5142,7 +5144,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5213,7 +5215,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5284,7 +5286,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5355,7 +5357,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5426,7 +5428,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5497,7 +5499,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5568,7 +5570,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5639,7 +5641,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5773,7 +5775,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6086,7 +6088,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6193,7 +6195,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6300,7 +6302,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6407,7 +6409,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6514,7 +6516,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6621,7 +6623,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6728,7 +6730,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6835,7 +6837,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -6942,7 +6944,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7049,7 +7051,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7156,7 +7158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7263,7 +7265,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7370,7 +7372,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7477,7 +7479,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7584,7 +7586,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7691,7 +7693,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7798,7 +7800,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -7905,7 +7907,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8012,7 +8014,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8119,7 +8121,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8226,7 +8228,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8333,7 +8335,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8440,7 +8442,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8547,7 +8549,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8654,7 +8656,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8761,7 +8763,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -8868,7 +8870,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -8921,7 +8923,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>37-277</t>
+          <t>37-280</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -8974,7 +8976,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19-188</t>
+          <t>19-191</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9027,7 +9029,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9080,7 +9082,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9133,7 +9135,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>20-199</t>
+          <t>20-202</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -9186,7 +9188,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>18-287</t>
+          <t>18-290</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -9239,7 +9241,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-168</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -9391,7 +9393,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -9665,7 +9667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -9729,7 +9731,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -9803,7 +9805,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -9875,7 +9877,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -9949,7 +9951,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10023,7 +10025,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10097,7 +10099,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10171,7 +10173,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10245,7 +10247,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10319,7 +10321,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10393,7 +10395,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10467,7 +10469,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10541,7 +10543,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -10615,7 +10617,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -10689,7 +10691,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -10763,7 +10765,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -10837,7 +10839,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -10911,7 +10913,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -10983,7 +10985,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11057,7 +11059,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11131,7 +11133,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11203,7 +11205,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11267,7 +11269,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11339,7 +11341,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11411,7 +11413,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11485,7 +11487,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11615,7 +11617,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -11901,7 +11903,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11993,7 +11995,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12085,7 +12087,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12177,7 +12179,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12269,7 +12271,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12361,7 +12363,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12453,7 +12455,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12545,7 +12547,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12637,7 +12639,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12729,7 +12731,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12821,7 +12823,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12913,7 +12915,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13005,7 +13007,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13097,7 +13099,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13189,7 +13191,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13281,7 +13283,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13373,7 +13375,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13465,7 +13467,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13557,7 +13559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13649,7 +13651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13741,7 +13743,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -13833,7 +13835,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -13925,7 +13927,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -14017,7 +14019,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -14109,7 +14111,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -14199,7 +14201,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14373,7 +14375,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -14624,7 +14626,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14692,7 +14694,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14760,7 +14762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14828,7 +14830,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14896,7 +14898,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14964,7 +14966,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15032,7 +15034,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15100,7 +15102,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15168,7 +15170,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15236,7 +15238,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15304,7 +15306,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15372,7 +15374,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15440,7 +15442,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15508,7 +15510,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15576,7 +15578,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15644,7 +15646,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15712,7 +15714,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15780,7 +15782,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15848,7 +15850,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15916,7 +15918,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15984,7 +15986,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16052,7 +16054,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16120,7 +16122,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16188,7 +16190,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16256,7 +16258,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -16324,7 +16326,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16452,7 +16454,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -16687,7 +16689,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16758,7 +16760,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16829,7 +16831,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16900,7 +16902,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16971,7 +16973,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17042,7 +17044,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17113,7 +17115,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17184,7 +17186,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17255,7 +17257,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17326,7 +17328,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17397,7 +17399,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17468,7 +17470,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17539,7 +17541,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17610,7 +17612,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17681,7 +17683,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17752,7 +17754,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17823,7 +17825,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17894,7 +17896,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17965,7 +17967,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18036,7 +18038,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18107,7 +18109,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18178,7 +18180,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18249,7 +18251,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18320,7 +18322,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18391,7 +18393,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -18462,7 +18464,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -18596,7 +18598,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -18831,7 +18833,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18902,7 +18904,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18973,7 +18975,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19044,7 +19046,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19115,7 +19117,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19186,7 +19188,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19257,7 +19259,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19328,7 +19330,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19399,7 +19401,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19470,7 +19472,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19541,7 +19543,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -19612,7 +19614,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -19683,7 +19685,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -19754,7 +19756,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19825,7 +19827,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19896,7 +19898,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19967,7 +19969,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20038,7 +20040,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20109,7 +20111,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20180,7 +20182,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20251,7 +20253,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -20320,7 +20322,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20391,7 +20393,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20462,7 +20464,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20533,7 +20535,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20602,7 +20604,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -20734,7 +20736,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -21008,7 +21010,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -21093,7 +21095,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21182,7 +21184,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21271,7 +21273,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21360,7 +21362,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21449,7 +21451,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21538,7 +21540,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21627,7 +21629,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21716,7 +21718,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -21805,7 +21807,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -21894,7 +21896,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -21983,7 +21985,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22072,7 +22074,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -22161,7 +22163,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -22250,7 +22252,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -22339,7 +22341,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22428,7 +22430,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22517,7 +22519,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22606,7 +22608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22695,7 +22697,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22784,7 +22786,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22873,7 +22875,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22962,7 +22964,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -23051,7 +23053,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -23140,7 +23142,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -23229,7 +23231,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -23395,7 +23397,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -23728,7 +23730,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-017</t>
+          <t>31-020</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -23835,7 +23837,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32-125</t>
+          <t>32-128</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -23942,7 +23944,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-299</t>
+          <t>25-302</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -24049,7 +24051,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35-179</t>
+          <t>35-182</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -24156,7 +24158,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32-082</t>
+          <t>32-085</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -24263,7 +24265,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-018</t>
+          <t>25-021</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -24370,7 +24372,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22-270</t>
+          <t>22-273</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -24477,7 +24479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-011</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -24584,7 +24586,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39-258</t>
+          <t>39-261</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -24691,7 +24693,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-124</t>
+          <t>28-127</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -24798,7 +24800,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25-023</t>
+          <t>25-026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -24905,7 +24907,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27-006</t>
+          <t>27-009</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -25012,7 +25014,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-122</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -25119,7 +25121,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-011</t>
+          <t>24-014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -25226,7 +25228,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23-313</t>
+          <t>23-316</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -25333,7 +25335,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>32-072</t>
+          <t>32-075</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -25440,7 +25442,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27-052</t>
+          <t>27-055</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -25547,7 +25549,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-267</t>
+          <t>21-270</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -25654,7 +25656,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -25761,7 +25763,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36-164</t>
+          <t>36-167</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -25868,7 +25870,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23-195</t>
+          <t>23-198</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -25975,7 +25977,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20-088</t>
+          <t>20-091</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -26082,7 +26084,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23-159</t>
+          <t>23-162</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -26189,7 +26191,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-064</t>
+          <t>18-067</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -26296,7 +26298,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-304</t>
+          <t>20-307</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26403,7 +26405,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28-153</t>
+          <t>28-156</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -26510,7 +26512,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -26563,7 +26565,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>37-277</t>
+          <t>37-280</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -26616,7 +26618,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19-188</t>
+          <t>19-191</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -26669,7 +26671,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20-147</t>
+          <t>20-150</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -26722,7 +26724,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>28-222</t>
+          <t>28-225</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -26775,7 +26777,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>20-199</t>
+          <t>20-202</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -26828,7 +26830,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>18-287</t>
+          <t>18-290</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -26881,7 +26883,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25-165</t>
+          <t>25-168</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -27033,7 +27035,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E39" t="n">
